--- a/Project3-Countdown/aggiacca - Project 3 - Test Plan.xlsx
+++ b/Project3-Countdown/aggiacca - Project 3 - Test Plan.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\436Projects\Project2-CharacterCreation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Adam's Stuff\436Projects\Project3-Countdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8415" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet name="July 05, 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="July 06, 2017" sheetId="4" r:id="rId2"/>
+    <sheet name="July 22, 2017" sheetId="1" r:id="rId1"/>
+    <sheet name="July 30, 2017" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Test case plan</t>
   </si>
@@ -67,47 +67,41 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>User opens stats for class</t>
-  </si>
-  <si>
-    <t>A user clicks one of the class and another activity is displayed</t>
-  </si>
-  <si>
-    <t>User edits attributes</t>
-  </si>
-  <si>
-    <t>A user clicks on Rating bar stars to edit an attribute</t>
-  </si>
-  <si>
-    <t>The stats are saved</t>
-  </si>
-  <si>
-    <t>Users uses a large screen device</t>
-  </si>
-  <si>
     <t xml:space="preserve">Passed </t>
   </si>
   <si>
     <t>Not Implemented</t>
   </si>
   <si>
-    <t>On tablets the stats screen is showed on the main screen. The app doesn't open another screen to show the stats</t>
-  </si>
-  <si>
-    <t>Fragment is spaced out quite a bit. Styling might need a rework to fix.</t>
-  </si>
-  <si>
-    <t>Tablet</t>
+    <t>Buttons work</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Buttons display correctly and work correctly</t>
+  </si>
+  <si>
+    <t>App runs displays notification</t>
+  </si>
+  <si>
+    <t>App run services after start countdown button is pressed that displays notifications</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App counts down from input time </t>
+  </si>
+  <si>
+    <t>App has service that uses a timertask to countdown from desired time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +149,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +184,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,12 +236,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,8 +277,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,8 +594,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +626,7 @@
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
-        <v>42920</v>
+        <v>42938</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -668,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -678,43 +689,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H6"/>
@@ -725,16 +733,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -773,13 +784,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
@@ -805,7 +816,7 @@
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
-        <v>42920</v>
+        <v>42946</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -838,9 +849,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,11 +869,9 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -872,48 +879,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H6"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -921,24 +923,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
